--- a/ROBOTS.INDUSTRIALES/PROYECTO/Planificador de proyectos de Gantt1.xlsx
+++ b/ROBOTS.INDUSTRIALES/PROYECTO/Planificador de proyectos de Gantt1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd5932089743e351/6°/ROBOTS.INDUSTRIALES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\OneDrive\6°\ROBOTS.INDUSTRIALES\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC2A721-701C-47DF-95CD-963D456ED170}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8424E4-4D77-4217-9B79-80DB5558D7FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador de proyectos" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ActualBeyond">PeriodInActual*('Planificador de proyectos'!$E1&gt;0)</definedName>
@@ -27,8 +28,13 @@
     <definedName name="TitleRegion..BO60">'Planificador de proyectos'!$B$3:$B$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planificador de proyectos'!$3:$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Planificador de proyectos</t>
   </si>
@@ -188,12 +194,75 @@
   <si>
     <t xml:space="preserve">Preparación para la exposición </t>
   </si>
+  <si>
+    <t xml:space="preserve">NOMBRE </t>
+  </si>
+  <si>
+    <t>SERVOMOTOR</t>
+  </si>
+  <si>
+    <t>No.  DE PIEZAS</t>
+  </si>
+  <si>
+    <t>94$</t>
+  </si>
+  <si>
+    <t>LUGAR DE COMPRA</t>
+  </si>
+  <si>
+    <t>PRECIO UNITARIO</t>
+  </si>
+  <si>
+    <t>PRECIO TOTAL</t>
+  </si>
+  <si>
+    <t>564$</t>
+  </si>
+  <si>
+    <t>BANGOOD</t>
+  </si>
+  <si>
+    <t>BASE DEL ROBOT</t>
+  </si>
+  <si>
+    <t>81$</t>
+  </si>
+  <si>
+    <t>SOPORTE DE MOTOR</t>
+  </si>
+  <si>
+    <t>52$</t>
+  </si>
+  <si>
+    <t>SOPORTE MULTIFUNCIONAL</t>
+  </si>
+  <si>
+    <t>63$</t>
+  </si>
+  <si>
+    <t>JUEGO DE TORNILLOS</t>
+  </si>
+  <si>
+    <t>GARRA DEL MOTOR</t>
+  </si>
+  <si>
+    <t>103$</t>
+  </si>
+  <si>
+    <t>142$</t>
+  </si>
+  <si>
+    <t>312$</t>
+  </si>
+  <si>
+    <t>315$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -293,8 +362,24 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +421,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -459,6 +550,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -517,7 +623,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,6 +690,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -629,14 +744,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1049,8 +1164,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="R12" sqref="B1:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1076,13 +1191,13 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1090,70 +1205,70 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
       <c r="Q2" s="17"/>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="35"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="36"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="39"/>
       <c r="AB2" s="19"/>
-      <c r="AC2" s="22" t="s">
+      <c r="AC2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="36"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="39"/>
       <c r="AJ2" s="20"/>
-      <c r="AK2" s="22" t="s">
+      <c r="AK2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="32" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1180,12 +1295,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1388,22 +1503,22 @@
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="23">
         <v>2</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="23">
         <v>6</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="23">
         <v>3</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="23">
         <v>6</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="24">
         <v>0.9</v>
       </c>
     </row>
@@ -1428,22 +1543,22 @@
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="23">
         <v>4</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="23">
         <v>8</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="23">
         <v>4</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="23">
         <v>6</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1464,27 +1579,31 @@
         <v>8</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="23">
         <v>4</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="23">
         <v>3</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="23">
         <v>4</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="23">
         <v>6</v>
       </c>
-      <c r="G10" s="39">
-        <v>0</v>
+      <c r="G10" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="R10" s="1" t="e">
+        <f>+B2B1:U10</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1790,4 +1909,166 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC249C9-7E7C-44C6-AC6F-1B547CA5DBA7}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="42">
+        <v>6</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="42">
+        <v>1</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="42">
+        <v>6</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="42">
+        <v>5</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="42">
+        <v>1</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="42">
+        <v>1</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <f>SUM(D3:D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ROBOTS.INDUSTRIALES/PROYECTO/Planificador de proyectos de Gantt1.xlsx
+++ b/ROBOTS.INDUSTRIALES/PROYECTO/Planificador de proyectos de Gantt1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\OneDrive\6°\ROBOTS.INDUSTRIALES\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8424E4-4D77-4217-9B79-80DB5558D7FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EA8424E4-4D77-4217-9B79-80DB5558D7FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{591EC72B-AE9A-4614-94E4-A86A7BC06C49}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,6 +699,9 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -749,9 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1191,13 +1191,13 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1205,70 +1205,70 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="17"/>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="39"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="39"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="40"/>
       <c r="AB2" s="19"/>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="39"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="40"/>
       <c r="AJ2" s="20"/>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="33" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1295,12 +1295,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1916,12 +1916,12 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="E1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -1929,128 +1929,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="42" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="25">
         <v>6</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="25">
         <v>6</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="25">
         <v>5</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="25">
         <v>1</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="25">
         <v>1</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="25" t="s">
         <v>34</v>
       </c>
     </row>
